--- a/FAST codes/Charts/21June23/21June23_thermal_conductivity.xlsx
+++ b/FAST codes/Charts/21June23/21June23_thermal_conductivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>G1TAverage</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>G2TAverage</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>G3TAverage</t>
+          <t>Thermal Conductivity</t>
         </is>
       </c>
     </row>
@@ -460,13 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.277</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.029</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.991</v>
+        <v>1.529</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +458,7 @@
         <v>0.46</v>
       </c>
       <c r="B3" t="n">
-        <v>78.47799999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>61.351</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.941</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +466,7 @@
         <v>1.06</v>
       </c>
       <c r="B4" t="n">
-        <v>90.88200000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75.861</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.356</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +474,7 @@
         <v>1.54</v>
       </c>
       <c r="B5" t="n">
-        <v>92.126</v>
-      </c>
-      <c r="C5" t="n">
-        <v>77.485</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.629</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +482,7 @@
         <v>1.74</v>
       </c>
       <c r="B6" t="n">
-        <v>92.172</v>
-      </c>
-      <c r="C6" t="n">
-        <v>77.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.088</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +490,7 @@
         <v>1.92</v>
       </c>
       <c r="B7" t="n">
-        <v>92.163</v>
-      </c>
-      <c r="C7" t="n">
-        <v>77.255</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.69</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +498,7 @@
         <v>2.29</v>
       </c>
       <c r="B8" t="n">
-        <v>92.053</v>
-      </c>
-      <c r="C8" t="n">
-        <v>77.02200000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20.86</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +506,7 @@
         <v>2.62</v>
       </c>
       <c r="B9" t="n">
-        <v>91.90600000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>76.65600000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.197</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +514,7 @@
         <v>2.85</v>
       </c>
       <c r="B10" t="n">
-        <v>91.804</v>
-      </c>
-      <c r="C10" t="n">
-        <v>76.39</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20.452</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +522,7 @@
         <v>3.03</v>
       </c>
       <c r="B11" t="n">
-        <v>91.71599999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>76.19799999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20.123</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +530,7 @@
         <v>3.24</v>
       </c>
       <c r="B12" t="n">
-        <v>91.628</v>
-      </c>
-      <c r="C12" t="n">
-        <v>76</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.051</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +538,7 @@
         <v>3.42</v>
       </c>
       <c r="B13" t="n">
-        <v>90.908</v>
-      </c>
-      <c r="C13" t="n">
-        <v>75.419</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19.842</v>
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>
